--- a/Managing Risk/Risk Register.xlsx
+++ b/Managing Risk/Risk Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/c3026923_hallam_shu_ac_uk/Documents/year3/management-of-it-projects/assessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/c3026923_hallam_shu_ac_uk/Documents/year3/management-of-it-projects/assessment/Week 4 Estimation and Managing Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{259711D1-21BC-4BBB-B647-C78322859A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1B7B64-B8C5-4716-89D8-94B505B051FF}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{259711D1-21BC-4BBB-B647-C78322859A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{212D3EB2-3B07-4AAD-ADA0-301F377B1BE3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0554EDAA-6F13-477B-828B-A29422F1AA39}"/>
+    <workbookView xWindow="2070" yWindow="3735" windowWidth="28800" windowHeight="15345" xr2:uid="{0554EDAA-6F13-477B-828B-A29422F1AA39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -262,6 +262,57 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -605,13 +656,13 @@
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
@@ -620,13 +671,13 @@
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -652,7 +703,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -676,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -700,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -714,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" ref="F6:F16" si="0">IF(AND(D7="Low",E7="Low"),"Very Low",IF(AND(D7="Low",E7="Medium"),"Quite Low",IF(AND(D7="Low",E7="High"),"Medium",IF(AND(D7="Medium",E7="Low"),"Quite Low",IF(AND(D7="Medium",E7="Medium"),"Medium",IF(AND(D7="Medium",E7="High"),"Quite High",IF(AND(D7="High",E7="Low"),"Medium",IF(AND(D7="High",E7="Medium"),"Quite High",IF(AND(D7="High",E7="High"),"Very High",)))))))))</f>
+        <f t="shared" ref="F7:F15" si="0">IF(AND(D7="Low",E7="Low"),"Very Low",IF(AND(D7="Low",E7="Medium"),"Quite Low",IF(AND(D7="Low",E7="High"),"Medium",IF(AND(D7="Medium",E7="Low"),"Quite Low",IF(AND(D7="Medium",E7="Medium"),"Medium",IF(AND(D7="Medium",E7="High"),"Quite High",IF(AND(D7="High",E7="Low"),"Medium",IF(AND(D7="High",E7="Medium"),"Quite High",IF(AND(D7="High",E7="High"),"Very High",)))))))))</f>
         <v>Quite Low</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -724,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -748,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -772,7 +823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -796,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -820,7 +871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -844,7 +895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -868,7 +919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -892,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -920,8 +971,49 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D5:D15">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E15">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E15">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F15">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Very High">
+      <formula>NOT(ISERROR(SEARCH("Very High",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Quite Low">
+      <formula>NOT(ISERROR(SEARCH("Quite Low",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Quite High">
+      <formula>NOT(ISERROR(SEARCH("Quite High",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Very Low">
+      <formula>NOT(ISERROR(SEARCH("Very Low",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Very High">
+      <formula>NOT(ISERROR(SEARCH("Very High",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percent" val="50"/>
@@ -930,23 +1022,6 @@
         <color rgb="FFFFFF00"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Quite Low">
-      <formula>NOT(ISERROR(SEARCH("Quite Low",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Quite High">
-      <formula>NOT(ISERROR(SEARCH("Quite High",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Very Low">
-      <formula>NOT(ISERROR(SEARCH("Very Low",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Very High">
-      <formula>NOT(ISERROR(SEARCH("Very High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
